--- a/inst/extdata/substances.xlsx
+++ b/inst/extdata/substances.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Moehring\Programs\Github\Load-Indicator\PesticideLoadIndicator\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Moehring\Paper\Load package\Load-Indicator1.0\PesticideLoadIndicator\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -644,8 +644,8 @@
   <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:XFD5"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT11" sqref="AT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +851,7 @@
         <v>0.37773679999999998</v>
       </c>
       <c r="E2" s="2">
-        <v>12.5</v>
+        <v>10.91</v>
       </c>
       <c r="F2" s="1">
         <v>20</v>
@@ -878,7 +878,7 @@
         <v>94</v>
       </c>
       <c r="N2" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
@@ -887,7 +887,7 @@
         <v>350</v>
       </c>
       <c r="Q2" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="X2" s="1">
         <v>30</v>
@@ -914,7 +914,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Z2" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AA2" s="1">
         <v>3</v>
@@ -923,7 +923,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC2" s="2">
-        <v>3.5E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="AD2" s="1">
         <v>3</v>
@@ -932,7 +932,7 @@
         <v>168</v>
       </c>
       <c r="AF2" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AG2" s="1">
         <v>2</v>
@@ -941,7 +941,7 @@
         <v>100</v>
       </c>
       <c r="AI2" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ2" s="1">
         <v>100</v>
@@ -950,7 +950,7 @@
         <v>0.65</v>
       </c>
       <c r="AL2" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AM2" s="1">
         <v>3</v>
@@ -962,7 +962,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AP2" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AQ2" s="1">
         <v>3</v>
@@ -971,7 +971,7 @@
         <v>0.75</v>
       </c>
       <c r="AS2" s="2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT2" s="1">
         <v>2</v>
@@ -991,7 +991,7 @@
         <v>1.4259660000000001E-5</v>
       </c>
       <c r="E3" s="2">
-        <v>12.5</v>
+        <v>10.91</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -1018,7 +1018,7 @@
         <v>2000</v>
       </c>
       <c r="N3" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>2000</v>
       </c>
       <c r="Q3" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="W3" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="X3">
         <v>30</v>
@@ -1054,7 +1054,7 @@
         <v>5.3E-3</v>
       </c>
       <c r="Z3" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AA3">
         <v>3</v>
@@ -1063,7 +1063,7 @@
         <v>1.93</v>
       </c>
       <c r="AC3" s="2">
-        <v>3.5E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="AD3">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AG3">
         <v>2</v>
@@ -1081,7 +1081,7 @@
         <v>105</v>
       </c>
       <c r="AI3" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ3">
         <v>100</v>
@@ -1090,7 +1090,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AL3" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AM3">
         <v>3</v>
@@ -1102,7 +1102,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AP3" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AQ3">
         <v>3</v>
@@ -1111,7 +1111,7 @@
         <v>3.5</v>
       </c>
       <c r="AS3" s="2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT3">
         <v>2</v>
@@ -1131,7 +1131,7 @@
         <v>3.7850149644643702E-4</v>
       </c>
       <c r="E4" s="2">
-        <v>12.5</v>
+        <v>10.91</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -1159,7 +1159,7 @@
         <v>49</v>
       </c>
       <c r="N4" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>444</v>
       </c>
       <c r="Q4" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>85.1</v>
       </c>
       <c r="W4" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="X4">
         <v>30</v>
@@ -1195,7 +1195,7 @@
         <v>60.6</v>
       </c>
       <c r="Z4" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -1204,7 +1204,7 @@
         <v>95.4</v>
       </c>
       <c r="AC4" s="2">
-        <v>3.5E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="AD4">
         <v>3</v>
@@ -1213,7 +1213,7 @@
         <v>105</v>
       </c>
       <c r="AF4" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AG4">
         <v>2</v>
@@ -1223,7 +1223,7 @@
         <v>28.07</v>
       </c>
       <c r="AI4" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ4">
         <v>100</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AM4">
         <v>3</v>
@@ -1244,7 +1244,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="AP4" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AQ4">
         <v>3</v>
@@ -1253,7 +1253,7 @@
         <v>62.5</v>
       </c>
       <c r="AS4" s="2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT4">
         <v>2</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>12.5</v>
+        <v>10.91</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>6400</v>
       </c>
       <c r="Q5" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>86.7</v>
       </c>
       <c r="W5" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="X5">
         <v>30</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="2">
-        <v>3.5E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="AD5">
         <v>3</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AG5">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ5">
         <v>100</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AM5">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AQ5">
         <v>3</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -1413,7 +1413,7 @@
         <v>3.7696840000000001E-3</v>
       </c>
       <c r="E6" s="2">
-        <v>12.5</v>
+        <v>10.91</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -1440,7 +1440,7 @@
         <v>1373</v>
       </c>
       <c r="N6" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>1581</v>
       </c>
       <c r="Q6" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>41</v>
       </c>
       <c r="W6" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="X6">
         <v>30</v>
@@ -1476,7 +1476,7 @@
         <v>1.8</v>
       </c>
       <c r="Z6" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AA6">
         <v>3</v>
@@ -1485,7 +1485,7 @@
         <v>0.45</v>
       </c>
       <c r="AC6" s="2">
-        <v>3.5E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="AD6">
         <v>3</v>
@@ -1494,7 +1494,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AG6">
         <v>2</v>
@@ -1503,7 +1503,7 @@
         <v>100</v>
       </c>
       <c r="AI6" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ6">
         <v>100</v>
@@ -1512,7 +1512,7 @@
         <v>180</v>
       </c>
       <c r="AL6" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AM6">
         <v>3</v>
@@ -1524,7 +1524,7 @@
         <v>97</v>
       </c>
       <c r="AP6" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT6">
         <v>2</v>
@@ -1553,7 +1553,7 @@
         <v>0.223556</v>
       </c>
       <c r="E7" s="2">
-        <v>12.5</v>
+        <v>10.91</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -1580,7 +1580,7 @@
         <v>234</v>
       </c>
       <c r="N7" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>962</v>
       </c>
       <c r="Q7" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>190</v>
       </c>
       <c r="W7" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="X7">
         <v>30</v>
@@ -1616,7 +1616,7 @@
         <v>79.8</v>
       </c>
       <c r="Z7" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -1625,7 +1625,7 @@
         <v>0.152</v>
       </c>
       <c r="AC7" s="2">
-        <v>3.5E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="AD7">
         <v>3</v>
@@ -1634,7 +1634,7 @@
         <v>325</v>
       </c>
       <c r="AF7" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AG7">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>200</v>
       </c>
       <c r="AI7" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ7">
         <v>100</v>
@@ -1652,7 +1652,7 @@
         <v>15</v>
       </c>
       <c r="AL7" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AM7">
         <v>3</v>
@@ -1664,7 +1664,7 @@
         <v>50</v>
       </c>
       <c r="AP7" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT7">
         <v>2</v>
@@ -1693,7 +1693,7 @@
         <v>7.6447269999999998E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>12.5</v>
+        <v>10.91</v>
       </c>
       <c r="F8">
         <v>20</v>
@@ -1720,7 +1720,7 @@
         <v>164</v>
       </c>
       <c r="N8" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1729,7 +1729,7 @@
         <v>322</v>
       </c>
       <c r="Q8" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>49</v>
       </c>
       <c r="W8" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="X8">
         <v>30</v>
@@ -1756,7 +1756,7 @@
         <v>0.02</v>
       </c>
       <c r="Z8" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AA8">
         <v>3</v>
@@ -1765,7 +1765,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC8" s="2">
-        <v>3.5E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="AD8">
         <v>3</v>
@@ -1774,7 +1774,7 @@
         <v>427</v>
       </c>
       <c r="AF8" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AG8">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>183</v>
       </c>
       <c r="AI8" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ8">
         <v>100</v>
@@ -1793,7 +1793,7 @@
         <v>5.6</v>
       </c>
       <c r="AL8" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1805,7 +1805,7 @@
         <v>0.32</v>
       </c>
       <c r="AP8" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -1814,7 +1814,7 @@
         <v>5.25</v>
       </c>
       <c r="AS8" s="2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT8">
         <v>2</v>
@@ -1834,7 +1834,7 @@
         <v>9.9897159999999999E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>12.5</v>
+        <v>10.91</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -1862,7 +1862,7 @@
         <v>1608</v>
       </c>
       <c r="N9" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>598</v>
       </c>
       <c r="Q9" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>30.9</v>
       </c>
       <c r="W9" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="X9">
         <v>30</v>
@@ -1898,7 +1898,7 @@
         <v>2.0400000000000001E-3</v>
       </c>
       <c r="Z9" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AA9">
         <v>3</v>
@@ -1907,7 +1907,7 @@
         <v>2E-3</v>
       </c>
       <c r="AC9" s="2">
-        <v>3.5E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="AD9">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>219</v>
       </c>
       <c r="AF9" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AG9">
         <v>2</v>
@@ -1925,7 +1925,7 @@
         <v>170</v>
       </c>
       <c r="AI9" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ9">
         <v>100</v>
@@ -1934,7 +1934,7 @@
         <v>0.2</v>
       </c>
       <c r="AL9" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -1946,7 +1946,7 @@
         <v>3.26</v>
       </c>
       <c r="AP9" s="2">
-        <v>1.4999999999999999E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AQ9">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="AS9" s="2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT9">
         <v>2</v>
